--- a/dataset_v1/task_sheet_answers/RampUpAndDown/2_RampUpAndDown/2_RampUpAndDown_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/RampUpAndDown/2_RampUpAndDown/2_RampUpAndDown_gt1.xlsx
@@ -1,75 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\RampUpAndDown\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D4DAF2-CB24-403C-9F1C-924B3FBCB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="12360" xr2:uid="{C5BE20A5-A19D-46BC-B099-1CB1B0A69B5D}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="8232" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>Acceleration of Block up Ramp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acceleration of Block down Ramp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanging mass (kilograms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,48 +58,107 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8A9A3A8F-4F45-43FD-9F8D-DCF9E17EF29B}"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
-        <u/>
+        <u val="single"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
+        <i val="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
+        <i val="1"/>
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,288 +458,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F816755-AF18-4220-8591-98BBCC15129C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18.44140625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="27.6640625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19"/>
+    <col customWidth="1" max="4" min="4" style="1" width="30.5546875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Hanging mass (kilograms)</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Acceleration of Block up Ramp</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Hanging mass (kilograms)</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Acceleration of Block down Ramp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B2" s="0">
+        <f>9.8*((A2-0.75*SIN(RADIANS(45))-0.25*0.75*COS(RADIANS(45)))/(A2+0.75))</f>
+        <v/>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.4</v>
-      </c>
-      <c r="B2">
-        <f>9.8*((A2-0.75*SIN(RADIANS(45))-0.25*0.75*COS(RADIANS(45)))/(A2+0.75))</f>
-        <v>-2.2404726540447002</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <f>-9.8*((-C2+0.75*SIN(RADIANS(45))-0.25*0.75*COS(RADIANS(45)))/(C2+0.75))</f>
-        <v>-5.1972348417211238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="C3">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.46000000000000008</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.48000000000000009</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.4800000000000001</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.52000000000000013</v>
-      </c>
-      <c r="C8">
-        <v>0.12000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.54000000000000015</v>
-      </c>
-      <c r="C9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.56000000000000016</v>
-      </c>
-      <c r="C10">
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.5200000000000001</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.5400000000000001</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.5600000000000002</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.58000000000000018</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.5800000000000002</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>0.6000000000000002</v>
       </c>
-      <c r="C12">
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.62000000000000022</v>
-      </c>
-      <c r="C13">
-        <v>0.21999999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.64000000000000024</v>
-      </c>
-      <c r="C14">
-        <v>0.23999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.66000000000000025</v>
-      </c>
-      <c r="C15">
-        <v>0.25999999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.68000000000000027</v>
-      </c>
-      <c r="C16">
-        <v>0.27999999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.70000000000000029</v>
-      </c>
-      <c r="C17">
+      <c r="C12" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.6200000000000002</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.6400000000000002</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>0.6600000000000003</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>0.6800000000000003</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>0.7000000000000003</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.72000000000000031</v>
-      </c>
-      <c r="C18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>0.7200000000000003</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.74000000000000032</v>
-      </c>
-      <c r="C19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>0.7400000000000003</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.76000000000000034</v>
-      </c>
-      <c r="C20">
-        <v>0.36000000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.78000000000000036</v>
-      </c>
-      <c r="C21">
-        <v>0.38000000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.80000000000000038</v>
-      </c>
-      <c r="C22">
-        <v>0.40000000000000008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>0.7600000000000003</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>0.7800000000000004</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.3800000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>0.8000000000000004</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.4000000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>0.8200000000000004</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>0.4200000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.84000000000000041</v>
-      </c>
-      <c r="C24">
-        <v>0.44000000000000011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.86000000000000043</v>
-      </c>
-      <c r="C25">
-        <v>0.46000000000000013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.88000000000000045</v>
-      </c>
-      <c r="C26">
-        <v>0.48000000000000015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0.90000000000000047</v>
-      </c>
-      <c r="C27">
-        <v>0.50000000000000011</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.92000000000000048</v>
-      </c>
-      <c r="C28">
-        <v>0.52000000000000013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="24">
+      <c r="A24" s="0" t="n">
+        <v>0.8400000000000004</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n">
+        <v>0.8600000000000004</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
+        <v>0.8800000000000004</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.4800000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
+        <v>0.9000000000000005</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
+        <v>0.9200000000000005</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5200000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>0.9400000000000005</v>
       </c>
-      <c r="C29">
-        <v>0.54000000000000015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.96000000000000052</v>
-      </c>
-      <c r="C30">
-        <v>0.56000000000000016</v>
+      <c r="C29" s="0" t="n">
+        <v>0.5400000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n">
+        <v>0.9600000000000005</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.5600000000000002</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule dxfId="1" operator="greaterThan" priority="2" type="cellIs">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule dxfId="0" operator="lessThan" priority="1" type="cellIs">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>